--- a/data/hotels_by_city/Houston/Houston_shard_508.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56907-d99698-Reviews-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Beaumont-Hotels-Motel-6-Winnie-TX.h20991.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,482 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r557745782-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>99698</t>
+  </si>
+  <si>
+    <t>557745782</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Motel 6 - Winnie, TX</t>
+  </si>
+  <si>
+    <t>Spent over an hour looking for a spot to spend the night and they were the only place for over 20 miles that were not only able to accommodate me but even gave me an upgrade.  Clean room and staff made sure I was comfortable.  I would definitely stay here again over the other hotels any day.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r556711144-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>556711144</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Wow what a pleasant surprise! This Motel 6 was so clean, quite and the Bed was comfortable. The man in the office was very nice said if we had any complains let him know. But we had none. I would definitely stay here again. Shower had good water pressure and was easy to get hot water.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r551747537-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>551747537</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTHING  like described. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO coffee pot in roomNO hair dryerNO shampooNO clockNO breakfast NO restaurant NO facial tissuesEither TripAdvisor website needs up dating or this is false advertising. The room WAS clean and the water was hot. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r536301542-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>536301542</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>BEST stay ever!!!!</t>
+  </si>
+  <si>
+    <t>The staff was very frendly and helpful, front office was very clean. The manager was very helpful and made sure I had everything I needed. The room was spacious and clean. It was almost better than home! I won't be staying anywhere else when I come to visit my family.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r528248961-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>528248961</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Management / front desk people were the best .The rooms were clean and kept that way.Good coffee in the morning was always fresh and hot. The place was really quite at night.My wife and will I definitely come back !MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2017</t>
+  </si>
+  <si>
+    <t>Management / front desk people were the best .The rooms were clean and kept that way.Good coffee in the morning was always fresh and hot. The place was really quite at night.My wife and will I definitely come back !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r512698279-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>512698279</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great motel 6</t>
+  </si>
+  <si>
+    <t>Was very clean and welcoming and the staff was very friendly and helpful! Pet friendly with no extra charger! The room was very much worth the money. Was close to different restaurants. right off the highway was easy to find and get to. Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Was very clean and welcoming and the staff was very friendly and helpful! Pet friendly with no extra charger! The room was very much worth the money. Was close to different restaurants. right off the highway was easy to find and get to. Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r508237700-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>508237700</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>quit stop</t>
+  </si>
+  <si>
+    <t>We checked in very late and I was super tired, the guy working the front desk Tyler was so sweet. I needed extra towels for my family and he went and got some and brought them to our room. Overall the place was awesome. Very clean and quite. Altho they do not serve breakfast there is hot coffee in the lobby and lots of little places around town to eat at.  The lady working the morning shift told me how to get to a little coffee shop they have in town and it was super good! If we ever pass through again I will make sure we stay here. Very nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>We checked in very late and I was super tired, the guy working the front desk Tyler was so sweet. I needed extra towels for my family and he went and got some and brought them to our room. Overall the place was awesome. Very clean and quite. Altho they do not serve breakfast there is hot coffee in the lobby and lots of little places around town to eat at.  The lady working the morning shift told me how to get to a little coffee shop they have in town and it was super good! If we ever pass through again I will make sure we stay here. Very nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r508229895-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>508229895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So clean! </t>
+  </si>
+  <si>
+    <t>This is a very well taken care of Motel! I was very pleased when I stayed here. The front desk is amazing with fresh coffee upon arrival. It is fairly renovated, the room was very clean! I will for sure stay here on my way back through!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This is a very well taken care of Motel! I was very pleased when I stayed here. The front desk is amazing with fresh coffee upon arrival. It is fairly renovated, the room was very clean! I will for sure stay here on my way back through!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r508226887-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>508226887</t>
+  </si>
+  <si>
+    <t>CodyB</t>
+  </si>
+  <si>
+    <t>We stay here a lot when we are working in the area. The staff is always polite and helpful. Super clean rooms, comfortable beds, rooms are practically brand new after the remodel. Hands down best motel six I've ever stayed at!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We stay here a lot when we are working in the area. The staff is always polite and helpful. Super clean rooms, comfortable beds, rooms are practically brand new after the remodel. Hands down best motel six I've ever stayed at!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r495093299-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>495093299</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Winnie ,TX Motel 6</t>
+  </si>
+  <si>
+    <t>This place has just been remodeled with new everything from the floor on up.The front office was clean and bright with free coffee 24 hours a day.The front desk staff was polite and efficient both on the phone and the two I met checking in and checking out.New furniture in the room , new big screen flat panel TV plenty of outlets for laptops or phone chargers, micro wave and fridge.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>This place has just been remodeled with new everything from the floor on up.The front office was clean and bright with free coffee 24 hours a day.The front desk staff was polite and efficient both on the phone and the two I met checking in and checking out.New furniture in the room , new big screen flat panel TV plenty of outlets for laptops or phone chargers, micro wave and fridge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r492853453-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>492853453</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Best hotel for the money</t>
+  </si>
+  <si>
+    <t>Pros:Room was super clean.The registration was quick and simple and the lady at the front desk was great.Price was excellentResponse to my inquiries was promptCons:No literature in the room...pad and paper?Information about the phone and internet was missingMoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Pros:Room was super clean.The registration was quick and simple and the lady at the front desk was great.Price was excellentResponse to my inquiries was promptCons:No literature in the room...pad and paper?Information about the phone and internet was missingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r486187483-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>486187483</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>above average motel 6</t>
+  </si>
+  <si>
+    <t>I stayed 5 nights in this better than average motel 6. It will likely be our hotel of choice whenever we go to Winnie again. The room was updated although the bathroom was not. Everything was very clean. Our room was large with 2 queen beds and a small table/desk, flatscreen TV, mini fridge and microwave. The shower/toilet area was separated from the sink area by a door (a layout that I like). The shower was good and the sink had a large vanity. They even provided a box of tissues - I’ve never seen this in a motel 6! The staff was friendly and helpful. There is an american-chinese restaurant next with decent, but not great food, and some fast food restaurants in the area.However, this is still a motel 6 and the negatives are similar to those of any motel 6: loud air conditioner (although it worked well), skimpy towels (although we got a few that were newer and thicker) and bad (albeit free) coffee available in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Neil K, Public Relations Manager at Motel 6 Winnie, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>I stayed 5 nights in this better than average motel 6. It will likely be our hotel of choice whenever we go to Winnie again. The room was updated although the bathroom was not. Everything was very clean. Our room was large with 2 queen beds and a small table/desk, flatscreen TV, mini fridge and microwave. The shower/toilet area was separated from the sink area by a door (a layout that I like). The shower was good and the sink had a large vanity. They even provided a box of tissues - I’ve never seen this in a motel 6! The staff was friendly and helpful. There is an american-chinese restaurant next with decent, but not great food, and some fast food restaurants in the area.However, this is still a motel 6 and the negatives are similar to those of any motel 6: loud air conditioner (although it worked well), skimpy towels (although we got a few that were newer and thicker) and bad (albeit free) coffee available in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r477961913-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>477961913</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Clean and good value, but not as expected</t>
+  </si>
+  <si>
+    <t>We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. 
+Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. 
+We enjoyed our next 5 nights more,...We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. We enjoyed our next 5 nights more, friends were also staying at the motel so we met them on the lawn for drinks at the table in the evening. Our room was made up daily, which we hadn't expected and the room was fit for purpose with a decent shower in the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, General Manager at Motel 6 Winnie, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. 
+Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. 
+We enjoyed our next 5 nights more,...We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. We enjoyed our next 5 nights more, friends were also staying at the motel so we met them on the lawn for drinks at the table in the evening. Our room was made up daily, which we hadn't expected and the room was fit for purpose with a decent shower in the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r463925390-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>463925390</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>Not terrible</t>
+  </si>
+  <si>
+    <t>I needed an inexpensive room, to give me time to take care of some business. I first discovered Motel 6 motels way back when they did actually charge $6 per night. The rooms were small but clean and had everything one might expect in a motel. A standard toilet, a complete bedroom with a chest of drawers, a sufficient supply of towels, etc. so here I go - 
+I made my reservation with my go-to credit card, no problem, right? Wellllllll - 
+The motel looks neat, as in tidy, not cool. Neat is good. I'm okay with neat. It is a U-shaped building with a grassy area within the U. There was is a small shade structure and a picnic table. 
+I arrived and tried to check in. Nope. We don't take that card. No? I made my reservation with it. Nope. We still don't take that card. Okay, I'll get another one. Yes, we take that one. 
+At first glance, the room looks clean. A closer inspection reveals dirty handprints around the door knobs and light switches. The floors are gritty. There are stray cats living on the property. And so on. 
+So after a little trip, I need to do some laundry. Find laundry room, also find I need quarters, which is not unexpected. Back to the front desk to ask for quarters in exchange for some paper money. No? Not that much? Nope. We don't do that....I needed an inexpensive room, to give me time to take care of some business. I first discovered Motel 6 motels way back when they did actually charge $6 per night. The rooms were small but clean and had everything one might expect in a motel. A standard toilet, a complete bedroom with a chest of drawers, a sufficient supply of towels, etc. so here I go - I made my reservation with my go-to credit card, no problem, right? Wellllllll - The motel looks neat, as in tidy, not cool. Neat is good. I'm okay with neat. It is a U-shaped building with a grassy area within the U. There was is a small shade structure and a picnic table. I arrived and tried to check in. Nope. We don't take that card. No? I made my reservation with it. Nope. We still don't take that card. Okay, I'll get another one. Yes, we take that one. At first glance, the room looks clean. A closer inspection reveals dirty handprints around the door knobs and light switches. The floors are gritty. There are stray cats living on the property. And so on. So after a little trip, I need to do some laundry. Find laundry room, also find I need quarters, which is not unexpected. Back to the front desk to ask for quarters in exchange for some paper money. No? Not that much? Nope. We don't do that. How about enough for one load of clothes? Okay, I have that much. After traveling for a while, I have a bit of trash I'd like to throw away. What? No trash receptacles along the walk as is so common with down-market motels. Nope. We don't do that. Keep your trash or take it into the room to throw it away. After traveling for several hours, my dog needs to attend his business. We walk out to the grassy area where Joe can attend to his business. We find evidence of other dogs who have attended to their business. Yes, the motel welcomes dogs but they do not offer little baggies for picking up after your dog. Nope, we don't do that. Back to the room for a hot bath. Yes, there is hot water. What? No tub stopper? Called the front desk to ask for a tub stopper. Nope. We don't do that. What? Are you sure? Nope. We don't do that. Now I can tell you that a wash cloth mashed down into the drain does not make an effective tub stopper. Another day of enduring this hospitlity does not improve things. I am thankful that my business is concluded and I can blow this pop sickle stand.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I needed an inexpensive room, to give me time to take care of some business. I first discovered Motel 6 motels way back when they did actually charge $6 per night. The rooms were small but clean and had everything one might expect in a motel. A standard toilet, a complete bedroom with a chest of drawers, a sufficient supply of towels, etc. so here I go - 
+I made my reservation with my go-to credit card, no problem, right? Wellllllll - 
+The motel looks neat, as in tidy, not cool. Neat is good. I'm okay with neat. It is a U-shaped building with a grassy area within the U. There was is a small shade structure and a picnic table. 
+I arrived and tried to check in. Nope. We don't take that card. No? I made my reservation with it. Nope. We still don't take that card. Okay, I'll get another one. Yes, we take that one. 
+At first glance, the room looks clean. A closer inspection reveals dirty handprints around the door knobs and light switches. The floors are gritty. There are stray cats living on the property. And so on. 
+So after a little trip, I need to do some laundry. Find laundry room, also find I need quarters, which is not unexpected. Back to the front desk to ask for quarters in exchange for some paper money. No? Not that much? Nope. We don't do that....I needed an inexpensive room, to give me time to take care of some business. I first discovered Motel 6 motels way back when they did actually charge $6 per night. The rooms were small but clean and had everything one might expect in a motel. A standard toilet, a complete bedroom with a chest of drawers, a sufficient supply of towels, etc. so here I go - I made my reservation with my go-to credit card, no problem, right? Wellllllll - The motel looks neat, as in tidy, not cool. Neat is good. I'm okay with neat. It is a U-shaped building with a grassy area within the U. There was is a small shade structure and a picnic table. I arrived and tried to check in. Nope. We don't take that card. No? I made my reservation with it. Nope. We still don't take that card. Okay, I'll get another one. Yes, we take that one. At first glance, the room looks clean. A closer inspection reveals dirty handprints around the door knobs and light switches. The floors are gritty. There are stray cats living on the property. And so on. So after a little trip, I need to do some laundry. Find laundry room, also find I need quarters, which is not unexpected. Back to the front desk to ask for quarters in exchange for some paper money. No? Not that much? Nope. We don't do that. How about enough for one load of clothes? Okay, I have that much. After traveling for a while, I have a bit of trash I'd like to throw away. What? No trash receptacles along the walk as is so common with down-market motels. Nope. We don't do that. Keep your trash or take it into the room to throw it away. After traveling for several hours, my dog needs to attend his business. We walk out to the grassy area where Joe can attend to his business. We find evidence of other dogs who have attended to their business. Yes, the motel welcomes dogs but they do not offer little baggies for picking up after your dog. Nope, we don't do that. Back to the room for a hot bath. Yes, there is hot water. What? No tub stopper? Called the front desk to ask for a tub stopper. Nope. We don't do that. What? Are you sure? Nope. We don't do that. Now I can tell you that a wash cloth mashed down into the drain does not make an effective tub stopper. Another day of enduring this hospitlity does not improve things. I am thankful that my business is concluded and I can blow this pop sickle stand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r462568395-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>462568395</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Overall good experience</t>
+  </si>
+  <si>
+    <t>Friendly staff and easy check in. Got to the room and it was large  clean and well appointed. Everything worked. Beds were fairly new and very comfortable. Good parking and easy to get to resteraunts.  Would stay there again</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r435329194-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>435329194</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>last texas stop</t>
+  </si>
+  <si>
+    <t>Great updated hotel clean warm near Dennys  despite  being late we got a great room, ice maker worked, staff were great. Despite 1/2 of our rooms lights tripped (our fault) they offered us a room change, we were too tired so we declined it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Jay K, Operations Manager at Motel 6 Winnie, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Great updated hotel clean warm near Dennys  despite  being late we got a great room, ice maker worked, staff were great. Despite 1/2 of our rooms lights tripped (our fault) they offered us a room change, we were too tired so we declined it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r423926972-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>423926972</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for a good price. Seems like it was recently renovated.  Nice clean rooms and friendly staff.  It is very nice for a Motel 6.  A plus for me is that it is pet friendly.  I will be staying here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Jay K, Operations Manager at Motel 6 Winnie, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for a good price. Seems like it was recently renovated.  Nice clean rooms and friendly staff.  It is very nice for a Motel 6.  A plus for me is that it is pet friendly.  I will be staying here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r391150605-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>391150605</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Exceeded Expectations</t>
+  </si>
+  <si>
+    <t>The Motel 6 has always been a reputable brand by my hotel standards. I figured I'd give this one a try. The quality of the room and overall construction exceeded my expectations greatly. My buddy and I each rented our own rooms for this cross country trip we were on and this choice was perfect. Both of our bathrooms were sparkling clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The Motel 6 has always been a reputable brand by my hotel standards. I figured I'd give this one a try. The quality of the room and overall construction exceeded my expectations greatly. My buddy and I each rented our own rooms for this cross country trip we were on and this choice was perfect. Both of our bathrooms were sparkling clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r326487438-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>326487438</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Keep driving to Beaumont</t>
+  </si>
+  <si>
+    <t>Is being remodeled but still not worth it. They charged $49+ tax and they should have been paying people to stay there. There is nothing near for food except a couple of shady looking convenience stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Winnie, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Is being remodeled but still not worth it. They charged $49+ tax and they should have been paying people to stay there. There is nothing near for food except a couple of shady looking convenience stores.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r320469414-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>320469414</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>If ya just need a place to crash for a night....</t>
+  </si>
+  <si>
+    <t>Look as far as rates go this is the cheapest you're going to find: $40 for the night. I got in really late (about 2:30AM) and just needed a place to sleep before getting up the next morning early and traveling on. This was fine for that. The motel is under renovation so be prepared for that. I was there on a weekend so I don't know if during the week people are working on the place which might wake you up. The room I had seemed like the bathroom had been updated. It's really no frills. But again, ya get what ya pay for. The bed wasn't the most comfortable thing in the world. But everything seemed pretty clean. Again, if it's late and ya need a place to crash for a night it'll do.MoreShow less</t>
+  </si>
+  <si>
+    <t>Look as far as rates go this is the cheapest you're going to find: $40 for the night. I got in really late (about 2:30AM) and just needed a place to sleep before getting up the next morning early and traveling on. This was fine for that. The motel is under renovation so be prepared for that. I was there on a weekend so I don't know if during the week people are working on the place which might wake you up. The room I had seemed like the bathroom had been updated. It's really no frills. But again, ya get what ya pay for. The bed wasn't the most comfortable thing in the world. But everything seemed pretty clean. Again, if it's late and ya need a place to crash for a night it'll do.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1017,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1049,1341 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>188</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>172</v>
+      </c>
+      <c r="X21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_508.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_508.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r580926282-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>56907</t>
+  </si>
+  <si>
+    <t>99698</t>
+  </si>
+  <si>
+    <t>580926282</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>MOTEL 6, WINNIE TX</t>
+  </si>
+  <si>
+    <t>This is a large motel, with big lawns. There is a large lobby, and conference rooms on the top floor above the lobby. Large windows in lobby, in case you are waiting to meet someone's arrival.  It is next to the eastbound lane of the busy interstate freeway. Families with children should note that there is NO FENCE SEPARATING THE FRONTAGE ROAD FROM THE INTERSTATE FREEWAY, and a child could wander 100 ft from the motel into the traffic lanes! Rooms are VERY LARGE for Motel 6; the motel was originally a different brand. There are restaurants of several brands a quarter mile west on the frontage road.    SB</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r564972691-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>564972691</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Nice Overnite Stay Motel 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a Nice place, The staff was Very helpful and Friendly. (Tyler) It was a quiet clean place. There was good food nearby!! I would stay here again!   The entire place was remodeled recently ! The colors and the surroundings were excellent </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r557745782-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
-    <t>56907</t>
-  </si>
-  <si>
-    <t>99698</t>
-  </si>
-  <si>
     <t>557745782</t>
   </si>
   <si>
@@ -177,9 +219,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r556711144-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -213,7 +252,40 @@
     <t xml:space="preserve">NO coffee pot in roomNO hair dryerNO shampooNO clockNO breakfast NO restaurant NO facial tissuesEither TripAdvisor website needs up dating or this is false advertising. The room WAS clean and the water was hot. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r541797589-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>541797589</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Looks are deceiving</t>
+  </si>
+  <si>
+    <t>On our way east we first stopped in Winnie,TX at Motel 6. It wasn't much to look at but were we surprised. I'm very picky where I lay my head for the night. I was very surprised and impressed at how clean the room was. The price was great. I was expecting to be underwhelmed., not so. Would recommend it to anyone traveling and want to rest for the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r537505096-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>537505096</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Haven - Such a blessing</t>
+  </si>
+  <si>
+    <t>Evacuated here with our dogs (1 small, 2 LARGE at no extra charge &amp; they welcomed them with smiles). Even when the dogs could go back to their yard, we chose to stay here rather than go to a different hotel. This place is that AWESOME! Nice, big, remodeled rooms complete with mini-fridge and microwave, excellent heating &amp; cooling (always comfy no matter the temp outside), plenty of outlets for those with multiple devices, tons of hot water (love a long shower) and super comfy beds/pillows. Neil watches over each and every guest as if they are part of his family, always checking if they need anything. The front desk crew is goes above and beyond, being very helpful &amp; friendly. The cleaning staff does a great job and is so considerate.It has been a blessing to feel so safe, welcome and happy during such a hard time.Friends and family visiting us will be staying here in the future, no doubt!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Evacuated here with our dogs (1 small, 2 LARGE at no extra charge &amp; they welcomed them with smiles). Even when the dogs could go back to their yard, we chose to stay here rather than go to a different hotel. This place is that AWESOME! Nice, big, remodeled rooms complete with mini-fridge and microwave, excellent heating &amp; cooling (always comfy no matter the temp outside), plenty of outlets for those with multiple devices, tons of hot water (love a long shower) and super comfy beds/pillows. Neil watches over each and every guest as if they are part of his family, always checking if they need anything. The front desk crew is goes above and beyond, being very helpful &amp; friendly. The cleaning staff does a great job and is so considerate.It has been a blessing to feel so safe, welcome and happy during such a hard time.Friends and family visiting us will be staying here in the future, no doubt!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r536301542-Motel_6_Winnie-Winnie_Texas.html</t>
@@ -249,9 +321,6 @@
     <t>Management / front desk people were the best .The rooms were clean and kept that way.Good coffee in the morning was always fresh and hot. The place was really quite at night.My wife and will I definitely come back !MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded October 2, 2017</t>
   </si>
   <si>
@@ -285,6 +354,51 @@
     <t>Was very clean and welcoming and the staff was very friendly and helpful! Pet friendly with no extra charger! The room was very much worth the money. Was close to different restaurants. right off the highway was easy to find and get to. Would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r509043597-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>509043597</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Birdwatching</t>
+  </si>
+  <si>
+    <t>Loved the Motel 6 in Winnie. We stay here when in the area for birdwatching. 205 was a great room, as was the gentleman at the front desk.  Neal was accommodating and checked is in early. Will come back here every year. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Loved the Motel 6 in Winnie. We stay here when in the area for birdwatching. 205 was a great room, as was the gentleman at the front desk.  Neal was accommodating and checked is in early. Will come back here every year. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r509004908-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>509004908</t>
+  </si>
+  <si>
+    <t>Fishing Trip</t>
+  </si>
+  <si>
+    <t>Front Desk Clerk was very nice and friendly.  Recommended a great place to eat.Room was very clean, The only drawback was the pillows were somewhat uncomfortable, but I normally bring my own, and forgot them for this trip. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front Desk Clerk was very nice and friendly.  Recommended a great place to eat.Room was very clean, The only drawback was the pillows were somewhat uncomfortable, but I normally bring my own, and forgot them for this trip. I would definitely stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r508237700-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -324,9 +438,6 @@
     <t>This is a very well taken care of Motel! I was very pleased when I stayed here. The front desk is amazing with fresh coffee upon arrival. It is fairly renovated, the room was very clean! I will for sure stay here on my way back through!MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>This is a very well taken care of Motel! I was very pleased when I stayed here. The front desk is amazing with fresh coffee upon arrival. It is fairly renovated, the room was very clean! I will for sure stay here on my way back through!More</t>
   </si>
   <si>
@@ -348,6 +459,57 @@
     <t>We stay here a lot when we are working in the area. The staff is always polite and helpful. Super clean rooms, comfortable beds, rooms are practically brand new after the remodel. Hands down best motel six I've ever stayed at!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r505993405-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>505993405</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>One of the Best Motel 6s I've Stayed At</t>
+  </si>
+  <si>
+    <t>The women at the front desk were helpful and considerate. One even made me a fresh pot of coffee when I arrived. The room was SPOTLESS. This was hands-down the cleanest Motel 6 I have ever stayed at and housekeeping should get medals and raises for their work because man is management lucky to have them. Because it was so clean and relaxing I stayed an extra night and got a ton of writing done. I asked for a quiet room on the second floor and I got it. Air conditioning is brand new, bed is super comfortable, place is spotless and it's under 50 bucks a night. I can't imagine why anyone would pay more somewhere else. Thank you Winnie Texas for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>The women at the front desk were helpful and considerate. One even made me a fresh pot of coffee when I arrived. The room was SPOTLESS. This was hands-down the cleanest Motel 6 I have ever stayed at and housekeeping should get medals and raises for their work because man is management lucky to have them. Because it was so clean and relaxing I stayed an extra night and got a ton of writing done. I asked for a quiet room on the second floor and I got it. Air conditioning is brand new, bed is super comfortable, place is spotless and it's under 50 bucks a night. I can't imagine why anyone would pay more somewhere else. Thank you Winnie Texas for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r499539795-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>499539795</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Got a Great Night Sleep!</t>
+  </si>
+  <si>
+    <t>Everything was brand new.  The bathroom was clean, as was the room.  Everything worked well, including the AC.  The people at the front desk were friendly. Outside the motel was very quiet at night.  If you are looking for a cheap place for a good night's sleep, this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Everything was brand new.  The bathroom was clean, as was the room.  Everything worked well, including the AC.  The people at the front desk were friendly. Outside the motel was very quiet at night.  If you are looking for a cheap place for a good night's sleep, this is it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r495093299-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -363,9 +525,6 @@
     <t>This place has just been remodeled with new everything from the floor on up.The front office was clean and bright with free coffee 24 hours a day.The front desk staff was polite and efficient both on the phone and the two I met checking in and checking out.New furniture in the room , new big screen flat panel TV plenty of outlets for laptops or phone chargers, micro wave and fridge.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>Neil K, Manager at Motel 6 Winnie, responded to this reviewResponded June 23, 2017</t>
   </si>
   <si>
@@ -424,6 +583,54 @@
   </si>
   <si>
     <t>I stayed 5 nights in this better than average motel 6. It will likely be our hotel of choice whenever we go to Winnie again. The room was updated although the bathroom was not. Everything was very clean. Our room was large with 2 queen beds and a small table/desk, flatscreen TV, mini fridge and microwave. The shower/toilet area was separated from the sink area by a door (a layout that I like). The shower was good and the sink had a large vanity. They even provided a box of tissues - I’ve never seen this in a motel 6! The staff was friendly and helpful. There is an american-chinese restaurant next with decent, but not great food, and some fast food restaurants in the area.However, this is still a motel 6 and the negatives are similar to those of any motel 6: loud air conditioner (although it worked well), skimpy towels (although we got a few that were newer and thicker) and bad (albeit free) coffee available in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r480238593-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>480238593</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The real truth. </t>
+  </si>
+  <si>
+    <t>NO breakfast as advertised, very very spotty internet.  You can check email,  but don't depend on it. However..The rooms/area is very quiet, the beds are extremely comfortable AND the shower was amazing. The air conditioner was no joke. .quiet and strong. I wanted to extend my stay just to sleep more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, General Manager at Motel 6 Winnie, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>NO breakfast as advertised, very very spotty internet.  You can check email,  but don't depend on it. However..The rooms/area is very quiet, the beds are extremely comfortable AND the shower was amazing. The air conditioner was no joke. .quiet and strong. I wanted to extend my stay just to sleep more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r478523430-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>478523430</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>We stayed two nights here when we got back to our room after getting breakfast on the second morning all our bags and personal items were gone and the beds stripped. We ran down to the front desk and the man claimed the manager should have told us they had to move us to do maintenance. He said the manager would phone us as we were livid as no one told us and we didn't want people to touch or steal our stuff. We felt moving and packing our suitcases and all our stuff to another room with no prior knowledge was not appropriate.The room they moved us into smelled of heavy smoke. We called the front desk again to complain and ask for a refund for this night but he said he can't do anything and that the manager would phone us the next day. The manager still hasn't phoned us days later. We are now missing one sweater and a iPhone charger as well which they stole or threw away in their packing.Avoid this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Neil K, Chief Maintenance at Motel 6 Winnie, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>We stayed two nights here when we got back to our room after getting breakfast on the second morning all our bags and personal items were gone and the beds stripped. We ran down to the front desk and the man claimed the manager should have told us they had to move us to do maintenance. He said the manager would phone us as we were livid as no one told us and we didn't want people to touch or steal our stuff. We felt moving and packing our suitcases and all our stuff to another room with no prior knowledge was not appropriate.The room they moved us into smelled of heavy smoke. We called the front desk again to complain and ask for a refund for this night but he said he can't do anything and that the manager would phone us the next day. The manager still hasn't phoned us days later. We are now missing one sweater and a iPhone charger as well which they stole or threw away in their packing.Avoid this place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r477961913-Motel_6_Winnie-Winnie_Texas.html</t>
@@ -441,12 +648,6 @@
     <t>We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. 
 Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. 
 We enjoyed our next 5 nights more,...We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. Unfortunately on arrival none of these were available. I checked booking.com which clearly still stated all of these things, however when looking directly at the hotel website none of the above facilities were mentioned. We arrived in the evening and just wanted to turn in for the night. We were given keys to our room and headed over, it was a queen bed smoking room. We had booked a deluxe king room non-smoking. We hoped that the smell would pass, but it did not and I had difficulty sleeping as the smoke seemed to even have got through to the bedding. The next day I took my booking form to Reception and asked for a non-smoking room. I was told there would be an additional charge, but I explained that I had already booked a non-smoking room so it should be available. After a few clicks of the computer we were given keys to a new room. Thankfully it smelt much better. We enjoyed our next 5 nights more, friends were also staying at the motel so we met them on the lawn for drinks at the table in the evening. Our room was made up daily, which we hadn't expected and the room was fit for purpose with a decent shower in the bathroom.MoreShow less</t>
-  </si>
-  <si>
-    <t>Neil K, General Manager at Motel 6 Winnie, responded to this reviewResponded May 17, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 17, 2017</t>
   </si>
   <si>
     <t>We booked this motel as the last stop of our trip to South Texas. We would be out bird watching all day and wanted somewhere to relax in the evening. We booked on booking.com for a few reasons, the facilities included the largest pool in the area (I love swimming), a free hot breakfast (this would enable us to get out quickly each morning) and coffee making facilities in the room. 
@@ -503,6 +704,51 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r448333496-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>448333496</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>clean and quiet</t>
+  </si>
+  <si>
+    <t>very clean hotel; also very quiet.  my only complaint is that the fridge did not have a freezer.  that was inconvenient for me as I travel with cooler pacs and had no way of freezing them. Theres a nice grassy area in front to walk pets as I travel with one.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r439919251-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>439919251</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed there for 4 nights while photographing birds in the area, the staff was very nice, The property was very well kept. Room was really nice, wood floors were nice looking, however, they seems to have some unseen dirt or sand, socks and feet would get slightly dirty! for the price of the room you can't beat it. We will return.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Jay K, Operations Manager at Motel 6 Winnie, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed there for 4 nights while photographing birds in the area, the staff was very nice, The property was very well kept. Room was really nice, wood floors were nice looking, however, they seems to have some unseen dirt or sand, socks and feet would get slightly dirty! for the price of the room you can't beat it. We will return.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r435329194-Motel_6_Winnie-Winnie_Texas.html</t>
   </si>
   <si>
@@ -518,15 +764,6 @@
     <t>Great updated hotel clean warm near Dennys  despite  being late we got a great room, ice maker worked, staff were great. Despite 1/2 of our rooms lights tripped (our fault) they offered us a room change, we were too tired so we declined it.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>Jay K, Operations Manager at Motel 6 Winnie, responded to this reviewResponded November 29, 2016</t>
-  </si>
-  <si>
-    <t>Responded November 29, 2016</t>
-  </si>
-  <si>
     <t>Great updated hotel clean warm near Dennys  despite  being late we got a great room, ice maker worked, staff were great. Despite 1/2 of our rooms lights tripped (our fault) they offered us a room change, we were too tired so we declined it.More</t>
   </si>
   <si>
@@ -575,10 +812,49 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>The Motel 6 has always been a reputable brand by my hotel standards. I figured I'd give this one a try. The quality of the room and overall construction exceeded my expectations greatly. My buddy and I each rented our own rooms for this cross country trip we were on and this choice was perfect. Both of our bathrooms were sparkling clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r388707704-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>388707704</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel for a good price</t>
+  </si>
+  <si>
+    <t>I pass through Winnie twice a month on business and have seen this property transform from a coal to a diamond. I usually stay at another property nearby however, I decided to give the new Motel 6 a chance. I was well impressed and satisfied. The room was very affordable, clean, and staff were all so friendly. My favorite about this stay was the bed. I don't sleep well on most beds but this one was wonderful! I will now start staying here from here on. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I pass through Winnie twice a month on business and have seen this property transform from a coal to a diamond. I usually stay at another property nearby however, I decided to give the new Motel 6 a chance. I was well impressed and satisfied. The room was very affordable, clean, and staff were all so friendly. My favorite about this stay was the bed. I don't sleep well on most beds but this one was wonderful! I will now start staying here from here on. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r358020897-Motel_6_Winnie-Winnie_Texas.html</t>
+  </si>
+  <si>
+    <t>358020897</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desperate for a break </t>
+  </si>
+  <si>
+    <t>Bad day on the road, being greeted with an attitude like Let's make This Right, was the bright spot I needed. I can see the changes going on here, what a value for a perfectly clean room, clean towels clean floors, a tv, frig and microwave. The Hunan Restaurant next door closed early, I was able to use what I brought to make a nice little dinner because there is a small table and 2 chairs. I think this place is an incredible value. I feel so lucky to stumble in here. Nicole at the front desk was wonderful and helpful. That gal is A+ with customer relations.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Bad day on the road, being greeted with an attitude like Let's make This Right, was the bright spot I needed. I can see the changes going on here, what a value for a perfectly clean room, clean towels clean floors, a tv, frig and microwave. The Hunan Restaurant next door closed early, I was able to use what I brought to make a nice little dinner because there is a small table and 2 chairs. I think this place is an incredible value. I feel so lucky to stumble in here. Nicole at the front desk was wonderful and helpful. That gal is A+ with customer relations.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56907-d99698-r326487438-Motel_6_Winnie-Winnie_Texas.html</t>
@@ -1158,7 +1434,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1169,9 +1445,13 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1215,13 +1495,13 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1251,7 +1531,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1260,25 +1540,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1292,7 +1572,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1308,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1317,45 +1597,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1371,7 +1645,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1380,49 +1654,39 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>78</v>
-      </c>
-      <c r="X6" t="s">
-        <v>79</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1438,7 +1702,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1447,19 +1711,19 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -1472,14 +1736,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1755,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1504,33 +1764,33 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1539,14 +1799,10 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1562,7 +1818,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1571,43 +1827,45 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -1623,7 +1881,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1632,43 +1890,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="O10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1684,7 +1948,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1693,47 +1957,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
-      <c r="N11" t="s">
-        <v>115</v>
-      </c>
-      <c r="O11" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -1749,7 +2005,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1758,29 +2014,27 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
@@ -1790,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1812,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1821,34 +2075,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -1857,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1879,7 +2133,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1888,47 +2142,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
         <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -1944,7 +2200,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1953,45 +2209,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -2007,7 +2261,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2016,45 +2270,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
@@ -2070,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2079,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2113,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
@@ -2135,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2144,49 +2396,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>108</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2202,7 +2448,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2211,32 +2457,30 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
       </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
@@ -2247,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
@@ -2269,7 +2513,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2278,47 +2522,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="X20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -2334,7 +2576,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2343,47 +2585,941 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="X21" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Y21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>185</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>194</v>
+      </c>
+      <c r="X22" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>197</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" t="s">
+        <v>199</v>
+      </c>
+      <c r="K23" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s">
+        <v>201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>185</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>202</v>
+      </c>
+      <c r="X23" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>223</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>145</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>145</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>259</v>
+      </c>
+      <c r="O31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>251</v>
+      </c>
+      <c r="X31" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>265</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>266</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>251</v>
+      </c>
+      <c r="X32" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>269</v>
+      </c>
+      <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>271</v>
+      </c>
+      <c r="L33" t="s">
+        <v>272</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>251</v>
+      </c>
+      <c r="X33" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>1</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>251</v>
+      </c>
+      <c r="X35" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
